--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Пн</t>
   </si>
@@ -108,13 +108,25 @@
   <si>
     <t>c 13:00-14:00;
 c 17:30</t>
+  </si>
+  <si>
+    <t>Сараев С.</t>
+  </si>
+  <si>
+    <t>16:30-19:00</t>
+  </si>
+  <si>
+    <t>16:30-18:30</t>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,17 +192,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +245,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -262,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -296,9 +314,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,153 +490,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="14.7109375" customWidth="1"/>
+    <col min="2" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32.25" customHeight="1">
+    <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.5" customHeight="1">
+    <row r="6" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="0.75" hidden="1" customHeight="1"/>
-    <row r="9" spans="1:12">
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="4"/>
@@ -626,20 +666,23 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="27.75" customHeight="1">
+    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="4"/>
@@ -648,20 +691,23 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="28.5" customHeight="1">
+    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="4"/>
@@ -670,20 +716,23 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1">
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="4"/>
@@ -692,20 +741,23 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="29.25" customHeight="1">
+    <row r="14" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="4"/>
@@ -714,20 +766,23 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1">
+    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="4"/>
@@ -743,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -756,12 +811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
